--- a/input_data/Span Results.xlsx
+++ b/input_data/Span Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Actual Sims Folder\Parametric Fin Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulrao/Documents/Dev/AeroNU/fin analysis results/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D236A7-90FA-4A9E-9D30-D8E13D1CB460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5451A4-2B6D-D94C-AA9D-A8BB860C1291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="35960" windowHeight="19980" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GG Torque (Z) 20" sheetId="21" r:id="rId1"/>
@@ -36,7 +36,6 @@
     <sheet name="Parametric Study" sheetId="1" r:id="rId21"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -540,7 +539,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1041,7 +1040,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1542,7 +1541,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2043,7 +2042,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2544,7 +2543,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3045,7 +3044,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3546,7 +3545,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4047,7 +4046,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4548,7 +4547,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5049,7 +5048,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5550,7 +5549,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6051,7 +6050,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6552,7 +6551,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7053,7 +7052,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7554,7 +7553,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8055,7 +8054,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8556,7 +8555,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9057,7 +9056,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9558,7 +9557,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10059,7 +10058,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11760,9 +11759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B2:DJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="11" width="15" customWidth="1"/>
@@ -11770,7 +11771,7 @@
     <col min="102" max="114" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -12109,297 +12110,297 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="D3" s="3">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="3">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F3" s="3">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="G3" s="3">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="H3" s="3">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="I3" s="3">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="J3" s="3">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="K3" s="3">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="L3" s="3">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="M3" s="3">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="N3" s="3">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="O3" s="3">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="P3" s="3">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="R3" s="3">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="U3" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="V3" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W3" s="3">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="X3" s="3">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="Y3" s="3">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="3">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="AA3" s="3">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="AB3" s="3">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="AC3" s="3">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="AD3" s="3">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="AE3" s="3">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="AF3" s="3">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="AG3" s="3">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="AH3" s="3">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="AI3" s="3">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="AJ3" s="3">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="AK3" s="3">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="AL3" s="3">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="AM3" s="3">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="AN3" s="3">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="AO3" s="3">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="AP3" s="3">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="AQ3" s="3">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="AR3" s="3">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="AS3" s="3">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="AT3" s="3">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="AU3" s="3">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AV3" s="3">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AW3" s="3">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AX3" s="3">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AY3" s="3">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="AZ3" s="3">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="BA3" s="3">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="BB3" s="3">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="BC3" s="3">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="BD3" s="3">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="BE3" s="3">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="BF3" s="3">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="BG3" s="3">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
       <c r="BH3" s="3">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
       <c r="BI3" s="3">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
       <c r="BJ3" s="3">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
       <c r="BK3" s="3">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="BL3" s="3">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="BM3" s="3">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="BN3" s="3">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="BO3" s="3">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BP3" s="3">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BQ3" s="3">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BR3" s="3">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BS3" s="3">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BT3" s="3">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BU3" s="3">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BV3" s="3">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BW3" s="3">
-        <v>0.6</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BX3" s="3">
-        <v>0.6</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BY3" s="3">
-        <v>0.6</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BZ3" s="3">
-        <v>0.6</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CA3" s="3">
-        <v>0.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CB3" s="3">
-        <v>0.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CC3" s="3">
-        <v>0.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CD3" s="3">
-        <v>0.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CE3" s="3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="CF3" s="3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="CG3" s="3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="CH3" s="3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="CI3" s="3">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="CJ3" s="3">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="CK3" s="3">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="CL3" s="3">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="CM3" s="3">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="CN3" s="3">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="CO3" s="3">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="CP3" s="3">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="CQ3" s="3">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="CR3" s="3">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="CS3" s="3">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="CT3" s="3">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="CU3" s="3">
         <v>0.2</v>
@@ -12414,725 +12415,725 @@
         <v>0.2</v>
       </c>
       <c r="CY3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CZ3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DA3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DB3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DC3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DD3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DE3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DF3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DG3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DH3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DI3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="DJ3" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:114" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.4</v>
       </c>
-      <c r="CZ3" s="3">
+      <c r="H4" s="3">
         <v>0.4</v>
       </c>
-      <c r="DA3" s="3">
+      <c r="I4" s="3">
         <v>0.4</v>
       </c>
-      <c r="DB3" s="3">
+      <c r="J4" s="3">
         <v>0.4</v>
       </c>
-      <c r="DC3" s="3">
+      <c r="K4" s="3">
         <v>0.6</v>
       </c>
-      <c r="DD3" s="3">
+      <c r="L4" s="3">
         <v>0.6</v>
       </c>
-      <c r="DE3" s="3">
+      <c r="M4" s="3">
         <v>0.6</v>
       </c>
-      <c r="DF3" s="3">
+      <c r="N4" s="3">
         <v>0.6</v>
       </c>
-      <c r="DG3" s="3">
+      <c r="O4" s="3">
         <v>0.8</v>
       </c>
-      <c r="DH3" s="3">
+      <c r="P4" s="3">
         <v>0.8</v>
       </c>
-      <c r="DI3" s="3">
+      <c r="Q4" s="3">
         <v>0.8</v>
       </c>
-      <c r="DJ3" s="3">
+      <c r="R4" s="3">
         <v>0.8</v>
       </c>
+      <c r="S4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="4" spans="2:114" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="2:114" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA5" s="3">
         <v>0</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE5" s="3">
         <v>0</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI5" s="3">
         <v>0</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM5" s="3">
         <v>0</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ5" s="3">
         <v>0</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AR5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU5" s="3">
         <v>0</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AW5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="AX4" s="3">
+      <c r="AX5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="AY4" s="3">
+      <c r="AY5" s="3">
         <v>0</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="AZ5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="BA4" s="3">
+      <c r="BA5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="BB4" s="3">
+      <c r="BB5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="BC4" s="3">
+      <c r="BC5" s="3">
         <v>0</v>
       </c>
-      <c r="BD4" s="3">
+      <c r="BD5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="BE4" s="3">
+      <c r="BE5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="BF4" s="3">
+      <c r="BF5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="BG4" s="3">
+      <c r="BG5" s="3">
         <v>0</v>
       </c>
-      <c r="BH4" s="3">
+      <c r="BH5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="BI4" s="3">
+      <c r="BI5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="BJ4" s="3">
+      <c r="BJ5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="BK4" s="3">
+      <c r="BK5" s="3">
         <v>0</v>
       </c>
-      <c r="BL4" s="3">
+      <c r="BL5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="BM4" s="3">
+      <c r="BM5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="BN4" s="3">
+      <c r="BN5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="BO4" s="3">
+      <c r="BO5" s="3">
         <v>0</v>
       </c>
-      <c r="BP4" s="3">
+      <c r="BP5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="BQ4" s="3">
+      <c r="BQ5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="BR4" s="3">
+      <c r="BR5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="BS4" s="3">
+      <c r="BS5" s="3">
         <v>0</v>
       </c>
-      <c r="BT4" s="3">
+      <c r="BT5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="BU4" s="3">
+      <c r="BU5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="BV4" s="3">
+      <c r="BV5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="BW4" s="3">
+      <c r="BW5" s="3">
         <v>0</v>
       </c>
-      <c r="BX4" s="3">
+      <c r="BX5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="BY4" s="3">
+      <c r="BY5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="BZ4" s="3">
+      <c r="BZ5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="CA4" s="3">
+      <c r="CA5" s="3">
         <v>0</v>
       </c>
-      <c r="CB4" s="3">
+      <c r="CB5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="CC4" s="3">
+      <c r="CC5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="CD4" s="3">
+      <c r="CD5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="CE4" s="3">
+      <c r="CE5" s="3">
         <v>0</v>
       </c>
-      <c r="CF4" s="3">
+      <c r="CF5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="CG4" s="3">
+      <c r="CG5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="CH4" s="3">
+      <c r="CH5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="CI4" s="3">
+      <c r="CI5" s="3">
         <v>0</v>
       </c>
-      <c r="CJ4" s="3">
+      <c r="CJ5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="CK4" s="3">
+      <c r="CK5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="CL4" s="3">
+      <c r="CL5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="CM4" s="3">
+      <c r="CM5" s="3">
         <v>0</v>
       </c>
-      <c r="CN4" s="3">
+      <c r="CN5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="CO4" s="3">
+      <c r="CO5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="CP4" s="3">
+      <c r="CP5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="CQ4" s="3">
+      <c r="CQ5" s="3">
         <v>0</v>
       </c>
-      <c r="CR4" s="3">
+      <c r="CR5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="CS4" s="3">
+      <c r="CS5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="CT4" s="3">
+      <c r="CT5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="CU4" s="3">
+      <c r="CU5" s="3">
         <v>0</v>
       </c>
-      <c r="CV4" s="3">
+      <c r="CV5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="CW4" s="3">
+      <c r="CW5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="CX4" s="3">
+      <c r="CX5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="CY4" s="3">
+      <c r="CY5" s="3">
         <v>0</v>
       </c>
-      <c r="CZ4" s="3">
+      <c r="CZ5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="DA4" s="3">
+      <c r="DA5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="DB4" s="3">
+      <c r="DB5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="DC4" s="3">
+      <c r="DC5" s="3">
         <v>0</v>
       </c>
-      <c r="DD4" s="3">
+      <c r="DD5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="DE4" s="3">
+      <c r="DE5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="DF4" s="3">
+      <c r="DF5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
-      <c r="DG4" s="3">
+      <c r="DG5" s="3">
         <v>0</v>
       </c>
-      <c r="DH4" s="3">
+      <c r="DH5" s="3">
         <v>2.9088821000000001E-2</v>
       </c>
-      <c r="DI4" s="3">
+      <c r="DI5" s="3">
         <v>5.8177642000000002E-2</v>
       </c>
-      <c r="DJ4" s="3">
+      <c r="DJ5" s="3">
         <v>8.7266463000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:114" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AQ5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AW5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AX5" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BC5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BD5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BE5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BF5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BG5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BJ5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BK5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BL5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BM5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BP5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BQ5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BR5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BS5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BT5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BU5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BV5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BW5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BX5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BY5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BZ5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="CA5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="CB5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="CC5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="CD5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="CE5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CF5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CG5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CH5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CI5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CJ5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CK5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CL5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CM5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CN5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CO5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CP5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CQ5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CR5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CS5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CT5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="CU5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="CV5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="CW5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="CX5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="CY5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="CZ5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DA5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DB5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DC5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DD5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DE5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DF5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DG5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DH5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DI5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="DJ5" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>101325.722625476</v>
       </c>
     </row>
-    <row r="7" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -13814,7 +13815,7 @@
         <v>154354.02389412699</v>
       </c>
     </row>
-    <row r="8" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -14155,7 +14156,7 @@
         <v>45313.510981944099</v>
       </c>
     </row>
-    <row r="9" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -14496,7 +14497,7 @@
         <v>1.2035702484150499</v>
       </c>
     </row>
-    <row r="10" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -14837,7 +14838,7 @@
         <v>274.39969516957802</v>
       </c>
     </row>
-    <row r="11" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>273.36287418841499</v>
       </c>
     </row>
-    <row r="12" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>23.761806712815101</v>
       </c>
     </row>
-    <row r="13" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>4.5245024789849998E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -16201,7 +16202,7 @@
         <v>61.872828162358601</v>
       </c>
     </row>
-    <row r="15" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -16542,7 +16543,7 @@
         <v>1117.94578164631</v>
       </c>
     </row>
-    <row r="16" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -16883,7 +16884,7 @@
         <v>-27.339700042461899</v>
       </c>
     </row>
-    <row r="17" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>192.52799393319501</v>
       </c>
     </row>
-    <row r="18" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>1124.6720793577001</v>
       </c>
     </row>
-    <row r="19" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -17906,7 +17907,7 @@
         <v>-27.342415077428701</v>
       </c>
     </row>
-    <row r="20" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -18247,7 +18248,7 @@
         <v>130.65516577083599</v>
       </c>
     </row>
-    <row r="21" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -18588,7 +18589,7 @@
         <v>6.7262977113889804</v>
       </c>
     </row>
-    <row r="22" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -18929,7 +18930,7 @@
         <v>-2.71503496676686E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -19270,7 +19271,7 @@
         <v>-4.0798303788560899</v>
       </c>
     </row>
-    <row r="24" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>63.808449777468702</v>
       </c>
     </row>
-    <row r="25" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:114" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
